--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>30890000</v>
+        <v>31575000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>47140000</v>
+        <v>46455000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="AK8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3000000</v>
+        <v>7300000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>31575000</v>
+        <v>55336000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>46455000</v>
+        <v>94894000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>78030000</v>
+        <v>150230000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>66230000</v>
+        <v>115930000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>11800000</v>
+        <v>34300000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>69230000</v>
+        <v>123230000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7300000</v>
+        <v>38900000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>55336000</v>
+        <v>185471000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>94894000</v>
+        <v>141397000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>150230000</v>
+        <v>326868000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>115930000</v>
+        <v>275868000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>34300000</v>
+        <v>51000000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>123230000</v>
+        <v>314768000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>51498000</v>
+        <v>49498000</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="AK12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="AQ12" t="n">
-        <v>401293000</v>
+        <v>399293000</v>
       </c>
       <c r="AR12" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>38900000</v>
+        <v>37300000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>185471000</v>
+        <v>216711000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>141397000</v>
+        <v>163107000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>326868000</v>
+        <v>379818000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>275868000</v>
+        <v>325818000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>51000000</v>
+        <v>54000000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>314768000</v>
+        <v>363118000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>216711000</v>
+        <v>217228000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>163107000</v>
+        <v>171590000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>379818000</v>
+        <v>388818000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>54000000</v>
+        <v>63000000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>217228000</v>
+        <v>224378000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>171590000</v>
+        <v>169440000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>388818000</v>
+        <v>393818000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>325818000</v>
+        <v>329818000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>63000000</v>
+        <v>64000000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>363118000</v>
+        <v>367118000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_HE_THONG.xlsx
+++ b/notion_data/LUY_KE_THANG_HE_THONG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>224378000</v>
+        <v>225658000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>169440000</v>
+        <v>215160000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>393818000</v>
+        <v>440818000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>329818000</v>
+        <v>376818000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>367118000</v>
+        <v>414118000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
